--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T06:24:07+00:00</t>
+    <t>2024-07-11T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/MOPEDAdmissionEncounter</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,17 +455,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Encounter.extension:Unfalldatum</t>
-  </si>
-  <si>
-    <t>Unfalldatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-unfalldatum}
+    <t>Encounter.extension:physischeAnwesenheit</t>
+  </si>
+  <si>
+    <t>physischeAnwesenheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-physischeAnwesenheit}
 </t>
   </si>
   <si>
-    <t>MOPED Extension für das Ereignis-/Unfalldatum.</t>
+    <t>physische Anwesenheit</t>
+  </si>
+  <si>
+    <t>Ob der Patient physisch anwesend war.</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -568,10 +571,6 @@
     <t>http://terminology.hl7.org/ValueSet/encounter-class</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.code}
-</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
@@ -579,15 +578,6 @@
   </si>
   <si>
     <t>PV1-2</t>
-  </si>
-  <si>
-    <t>Encounter.class:Behandlungsart</t>
-  </si>
-  <si>
-    <t>Behandlungsart</t>
-  </si>
-  <si>
-    <t>http://tbd.at/MOPED-encounter-behandlungsart</t>
   </si>
   <si>
     <t>Encounter.priority</t>
@@ -777,7 +767,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDEncounter)
 </t>
   </si>
   <si>
@@ -1024,7 +1014,7 @@
     <t>Encounter.actualPeriod</t>
   </si>
   <si>
-    <t>Aufnahme- und Entlassungsdatum</t>
+    <t>Zugangs- und Abgangsdatum</t>
   </si>
   <si>
     <t>The actual start and end time of the encounter.</t>
@@ -1115,10 +1105,6 @@
  * patient home monitoring could use Condition as the reason</t>
   </si>
   <si>
-    <t xml:space="preserve">value:type.coding.code}
-</t>
-  </si>
-  <si>
     <t>Encounter.reason.id</t>
   </si>
   <si>
@@ -1175,255 +1161,6 @@
     <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 V2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
   </si>
   <si>
-    <t>Encounter.reason:Ursache</t>
-  </si>
-  <si>
-    <t>Ursache</t>
-  </si>
-  <si>
-    <t>Ursache für Behandlung</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.id</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.extension</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.id</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.id</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.extension</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.coding</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.coding.id</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.coding.id</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.coding.extension</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.coding.extension</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.coding.system</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.coding.version</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.coding.code</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>RV</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod-1
-</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.coding.display</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.use.text</t>
-  </si>
-  <si>
-    <t>Encounter.reason.use.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Encounter.reason:Ursache.value</t>
-  </si>
-  <si>
-    <t>http://tbd.at/MOPED-encounter-ursache</t>
-  </si>
-  <si>
     <t>Encounter.diagnosis</t>
   </si>
   <si>
@@ -1443,22 +1180,6 @@
   </si>
   <si>
     <t>Encounter.diagnosis.extension</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.extension:Erworben</t>
-  </si>
-  <si>
-    <t>Erworben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-erworben}
-</t>
-  </si>
-  <si>
-    <t>Diagnose - im stationären Aufenthalt erworben</t>
-  </si>
-  <si>
-    <t>Gibt an ob die Diagnose während des stationären Aufenthalts erworben wurde</t>
   </si>
   <si>
     <t>Encounter.diagnosis.modifierExtension</t>
@@ -1499,10 +1220,10 @@
     <t>Role that this diagnosis has within the encounter (e.g. admission, billing, discharge …).</t>
   </si>
   <si>
-    <t>Code für den Typ der LKF Diagnose, der angibt ob es sich um eine Haupt- oder Nebendiagnose handelt</t>
-  </si>
-  <si>
-    <t>http://tbd.at/moped-ext-lkf-diagnose-typ</t>
+    <t>The type of diagnosis this condition represents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diagnosis-use</t>
   </si>
   <si>
     <t>DG1-6 (Diagnosis Type)</t>
@@ -1628,54 +1349,28 @@
     <t>Encounter.admission.extension</t>
   </si>
   <si>
-    <t>Encounter.admission.extension:Aufnahmeart</t>
-  </si>
-  <si>
-    <t>Aufnahmeart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-aufnahme-art}
+    <t>Encounter.admission.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.admission.preAdmissionIdentifier</t>
+  </si>
+  <si>
+    <t>Pre-admission identifier</t>
+  </si>
+  <si>
+    <t>Pre-admission identifier.</t>
+  </si>
+  <si>
+    <t>PV1-5</t>
+  </si>
+  <si>
+    <t>Encounter.admission.origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|Organization)
 </t>
   </si>
   <si>
-    <t>MOPED Extension für die Art der Aufnahme.</t>
-  </si>
-  <si>
-    <t>Encounter.admission.extension:Transportart</t>
-  </si>
-  <si>
-    <t>Transportart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-transportart}
-</t>
-  </si>
-  <si>
-    <t>MOPED Extension für die Transportart.</t>
-  </si>
-  <si>
-    <t>Encounter.admission.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.admission.preAdmissionIdentifier</t>
-  </si>
-  <si>
-    <t>Pre-admission identifier</t>
-  </si>
-  <si>
-    <t>Pre-admission identifier.</t>
-  </si>
-  <si>
-    <t>PV1-5</t>
-  </si>
-  <si>
-    <t>Encounter.admission.origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>The location/organization from which the patient came before admission</t>
   </si>
   <si>
@@ -1742,13 +1437,13 @@
     <t>Encounter.admission.dischargeDisposition</t>
   </si>
   <si>
-    <t>Entlassungsart</t>
+    <t>Abgangsart</t>
   </si>
   <si>
     <t>Category or kind of location after discharge.</t>
   </si>
   <si>
-    <t>http://tbd.at/MOPED-encounter-entlassungsart</t>
+    <t>http://tbd.at/MOPED-encounter-abgangsart</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -2152,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2161,9 +1856,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.40234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.58984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.58984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2185,11 +1880,11 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.65625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.58984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3261,10 +2956,10 @@
         <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3344,14 +3039,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3373,16 +3068,16 @@
         <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>19</v>
@@ -3431,7 +3126,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3460,10 +3155,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3486,13 +3181,13 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3543,7 +3238,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3558,24 +3253,24 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3601,13 +3296,13 @@
         <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3636,10 +3331,10 @@
         <v>111</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>19</v>
@@ -3657,7 +3352,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -3672,24 +3367,24 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3712,13 +3407,13 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3745,29 +3440,31 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3799,11 +3496,9 @@
         <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>19</v>
       </c>
@@ -3821,16 +3516,16 @@
         <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3857,11 +3552,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3879,13 +3576,13 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>19</v>
@@ -3897,21 +3594,21 @@
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3922,7 +3619,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -3931,18 +3628,20 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3967,13 +3666,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3991,13 +3690,13 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
@@ -4006,24 +3705,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4046,17 +3745,15 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -4081,13 +3778,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -4105,7 +3802,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4120,35 +3817,35 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
@@ -4160,15 +3857,17 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
@@ -4193,37 +3892,37 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
@@ -4232,28 +3931,28 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4269,19 +3968,19 @@
         <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4307,13 +4006,13 @@
         <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>19</v>
@@ -4331,7 +4030,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4346,24 +4045,24 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>219</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4374,7 +4073,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -4383,20 +4082,18 @@
         <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -4421,13 +4118,13 @@
         <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>19</v>
@@ -4445,13 +4142,13 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
@@ -4463,25 +4160,25 @@
         <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>19</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4497,16 +4194,16 @@
         <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4557,7 +4254,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4572,28 +4269,28 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>231</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4612,13 +4309,13 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4669,7 +4366,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4684,13 +4381,13 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>19</v>
@@ -4698,10 +4395,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4712,7 +4409,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -4724,15 +4421,17 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4781,13 +4480,13 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
@@ -4796,13 +4495,13 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -4810,10 +4509,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4836,17 +4535,15 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4895,7 +4592,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4910,24 +4607,24 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>19</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4938,7 +4635,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
@@ -4947,18 +4644,20 @@
         <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -5007,39 +4706,39 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5050,7 +4749,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -5059,20 +4758,18 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -5121,50 +4818,50 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -5176,15 +4873,17 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -5233,19 +4932,19 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>19</v>
@@ -5254,7 +4953,7 @@
         <v>19</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>19</v>
@@ -5262,14 +4961,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5282,24 +4981,26 @@
         <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
       </c>
@@ -5347,7 +5048,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5368,7 +5069,7 @@
         <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>19</v>
@@ -5376,14 +5077,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5396,26 +5097,24 @@
         <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
@@ -5439,13 +5138,13 @@
         <v>19</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>19</v>
@@ -5463,7 +5162,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5472,30 +5171,30 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>132</v>
+        <v>286</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>19</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5506,7 +5205,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -5515,20 +5214,18 @@
         <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5553,13 +5250,13 @@
         <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>19</v>
@@ -5577,39 +5274,39 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5629,18 +5326,20 @@
         <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5689,7 +5388,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5698,30 +5397,30 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5732,7 +5431,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5744,17 +5443,15 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5803,39 +5500,39 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5855,18 +5552,20 @@
         <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5915,7 +5614,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5930,24 +5629,24 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>310</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5958,7 +5657,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -5970,16 +5669,16 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6029,13 +5728,13 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
@@ -6044,24 +5743,24 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>19</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6084,17 +5783,15 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -6143,7 +5840,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6158,24 +5855,24 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>322</v>
+        <v>19</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6198,13 +5895,13 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6255,7 +5952,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6279,15 +5976,15 @@
         <v>19</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6310,15 +6007,17 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -6367,7 +6066,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6382,24 +6081,24 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6410,7 +6109,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
@@ -6419,19 +6118,19 @@
         <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6481,13 +6180,13 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
@@ -6496,24 +6195,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>339</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6524,7 +6223,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -6533,20 +6232,18 @@
         <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6583,29 +6280,31 @@
         <v>19</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
@@ -6614,7 +6313,7 @@
         <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>19</v>
@@ -6622,21 +6321,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -6648,15 +6347,17 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6705,19 +6406,19 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
@@ -6726,7 +6427,7 @@
         <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>19</v>
@@ -6734,14 +6435,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6754,24 +6455,26 @@
         <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
       </c>
@@ -6819,7 +6522,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6840,7 +6543,7 @@
         <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>19</v>
@@ -6848,14 +6551,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6868,26 +6571,22 @@
         <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>278</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>19</v>
       </c>
@@ -6911,13 +6610,11 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -6935,7 +6632,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6947,7 +6644,7 @@
         <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
@@ -6956,7 +6653,7 @@
         <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>19</v>
@@ -6971,7 +6668,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6990,13 +6687,13 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7023,11 +6720,13 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -7060,28 +6759,28 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>19</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>353</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7100,15 +6799,17 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -7133,13 +6834,13 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>357</v>
+        <v>19</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>358</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
@@ -7157,7 +6858,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7172,28 +6873,26 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>362</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C45" t="s" s="2">
         <v>364</v>
       </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>19</v>
       </c>
@@ -7211,20 +6910,18 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -7273,19 +6970,19 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
@@ -7294,7 +6991,7 @@
         <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>19</v>
@@ -7302,21 +6999,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -7328,15 +7025,17 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7385,19 +7084,19 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -7406,7 +7105,7 @@
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -7414,14 +7113,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7434,24 +7133,26 @@
         <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
       </c>
@@ -7499,7 +7200,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7520,7 +7221,7 @@
         <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
@@ -7528,14 +7229,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7548,26 +7249,22 @@
         <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>19</v>
       </c>
@@ -7591,13 +7288,11 @@
         <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>19</v>
@@ -7615,7 +7310,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7627,27 +7322,27 @@
         <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>132</v>
+        <v>373</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>19</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7667,16 +7362,16 @@
         <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7703,11 +7398,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7725,7 +7422,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7746,18 +7443,18 @@
         <v>19</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>19</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7768,7 +7465,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
@@ -7780,15 +7477,17 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>89</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7837,19 +7536,19 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
@@ -7858,7 +7557,7 @@
         <v>19</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>208</v>
+        <v>386</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>19</v>
@@ -7866,14 +7565,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7892,18 +7591,20 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>273</v>
+        <v>388</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>274</v>
+        <v>389</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
       </c>
@@ -7927,31 +7628,31 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>19</v>
+        <v>392</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>19</v>
+        <v>393</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>374</v>
+        <v>19</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>275</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7963,7 +7664,7 @@
         <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
@@ -7972,18 +7673,18 @@
         <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>208</v>
+        <v>394</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>19</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8003,23 +7704,19 @@
         <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>172</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>19</v>
       </c>
@@ -8043,13 +7740,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>19</v>
+        <v>399</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -8067,7 +7764,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8088,18 +7785,18 @@
         <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8110,7 +7807,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
@@ -8122,15 +7819,17 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>268</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8155,13 +7854,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>19</v>
+        <v>407</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -8179,19 +7878,19 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
@@ -8200,29 +7899,29 @@
         <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>208</v>
+        <v>409</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>19</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
@@ -8234,16 +7933,16 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>273</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>274</v>
+        <v>413</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>149</v>
+        <v>414</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8281,31 +7980,31 @@
         <v>19</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>374</v>
+        <v>19</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
@@ -8314,7 +8013,7 @@
         <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>208</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>19</v>
@@ -8322,10 +8021,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8345,23 +8044,19 @@
         <v>19</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>19</v>
       </c>
@@ -8409,7 +8104,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>395</v>
+        <v>267</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8418,10 +8113,10 @@
         <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
@@ -8430,29 +8125,29 @@
         <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>396</v>
+        <v>205</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>397</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
@@ -8461,19 +8156,19 @@
         <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>401</v>
+        <v>271</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>402</v>
+        <v>150</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8523,19 +8218,19 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>403</v>
+        <v>272</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
@@ -8544,58 +8239,60 @@
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>404</v>
+        <v>205</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>405</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>275</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>410</v>
+        <v>151</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>411</v>
+        <v>19</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>19</v>
@@ -8637,19 +8334,19 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>413</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
@@ -8658,18 +8355,18 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>414</v>
+        <v>132</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>415</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8689,21 +8386,19 @@
         <v>19</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
       </c>
@@ -8751,7 +8446,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8760,7 +8455,7 @@
         <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>413</v>
+        <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>99</v>
@@ -8772,18 +8467,18 @@
         <v>19</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8803,23 +8498,19 @@
         <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -8867,7 +8558,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8888,18 +8579,18 @@
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>433</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8919,23 +8610,19 @@
         <v>19</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>19</v>
       </c>
@@ -8959,13 +8646,13 @@
         <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>19</v>
+        <v>432</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -8983,7 +8670,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9004,29 +8691,29 @@
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>352</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>353</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
@@ -9035,16 +8722,16 @@
         <v>19</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>354</v>
+        <v>172</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>355</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>356</v>
+        <v>437</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9071,11 +8758,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -9093,13 +8782,13 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>352</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>19</v>
@@ -9108,24 +8797,24 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>361</v>
+        <v>205</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>362</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9136,7 +8825,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>19</v>
@@ -9145,20 +8834,18 @@
         <v>19</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>258</v>
+        <v>424</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>19</v>
@@ -9207,13 +8894,13 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>19</v>
@@ -9228,18 +8915,18 @@
         <v>19</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>19</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9262,13 +8949,13 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>268</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>269</v>
+        <v>448</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9295,13 +8982,11 @@
         <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>19</v>
@@ -9319,7 +9004,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>270</v>
+        <v>446</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9328,10 +9013,10 @@
         <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>19</v>
@@ -9340,18 +9025,18 @@
         <v>19</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>208</v>
+        <v>450</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>19</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9374,15 +9059,17 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>135</v>
+        <v>453</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>19</v>
@@ -9419,17 +9106,19 @@
         <v>19</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>275</v>
+        <v>452</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9441,7 +9130,7 @@
         <v>19</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>19</v>
@@ -9450,7 +9139,7 @@
         <v>19</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>19</v>
+        <v>456</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>19</v>
@@ -9458,14 +9147,12 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>19</v>
       </c>
@@ -9486,13 +9173,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>454</v>
+        <v>264</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>455</v>
+        <v>265</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>456</v>
+        <v>266</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9543,19 +9230,19 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>19</v>
@@ -9564,7 +9251,7 @@
         <v>19</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>19</v>
@@ -9572,14 +9259,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9592,26 +9279,24 @@
         <v>19</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O66" t="s" s="2">
         <v>150</v>
       </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>19</v>
       </c>
@@ -9659,7 +9344,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9680,7 +9365,7 @@
         <v>19</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>19</v>
@@ -9688,14 +9373,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>459</v>
+        <v>274</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9708,22 +9393,26 @@
         <v>19</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>460</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>461</v>
+        <v>275</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
       </c>
@@ -9747,11 +9436,13 @@
         <v>19</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>19</v>
@@ -9769,7 +9460,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>458</v>
+        <v>277</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9781,27 +9472,27 @@
         <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>464</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>465</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9809,10 +9500,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
@@ -9824,13 +9515,13 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>171</v>
+        <v>461</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9857,13 +9548,13 @@
         <v>19</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>469</v>
+        <v>19</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>470</v>
+        <v>19</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>19</v>
@@ -9881,13 +9572,13 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>19</v>
@@ -9896,24 +9587,24 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>19</v>
+        <v>464</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>19</v>
+        <v>465</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9924,7 +9615,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>19</v>
@@ -9936,16 +9627,16 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9971,13 +9662,13 @@
         <v>19</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>19</v>
+        <v>471</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>19</v>
+        <v>472</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>19</v>
@@ -9995,13 +9686,13 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>19</v>
@@ -10016,7 +9707,7 @@
         <v>19</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>19</v>
@@ -10024,10 +9715,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10038,7 +9729,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>19</v>
@@ -10050,20 +9741,18 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -10087,13 +9776,13 @@
         <v>19</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -10111,13 +9800,13 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>19</v>
@@ -10132,18 +9821,18 @@
         <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>485</v>
+        <v>19</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10154,7 +9843,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>19</v>
@@ -10166,13 +9855,13 @@
         <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10199,13 +9888,13 @@
         <v>19</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>490</v>
+        <v>19</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>491</v>
+        <v>19</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -10223,13 +9912,13 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>19</v>
@@ -10244,2381 +9933,9 @@
         <v>19</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>492</v>
+        <v>292</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC75" s="2"/>
-      <c r="AD75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="D77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y84" s="2"/>
-      <c r="Z84" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN92" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T09:40:45+00:00</t>
+    <t>2024-07-16T10:33:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,10 +455,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Encounter.extension:physischeAnwesenheit</t>
-  </si>
-  <si>
-    <t>physischeAnwesenheit</t>
+    <t>Encounter.extension:PhysischeAnwesenheit</t>
+  </si>
+  <si>
+    <t>PhysischeAnwesenheit</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-physischeAnwesenheit}
@@ -1443,7 +1443,7 @@
     <t>Category or kind of location after discharge.</t>
   </si>
   <si>
-    <t>http://tbd.at/MOPED-encounter-abgangsart</t>
+    <t>http://example.org/ValueSet/moped-abgangsart-valueset</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1858,7 +1858,7 @@
   <cols>
     <col min="1" max="1" width="41.58984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.58984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-16T10:33:51+00:00</t>
+    <t>2024-07-19T05:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T05:43:00+00:00</t>
+    <t>2024-07-31T11:45:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:46:02+00:00</t>
+    <t>2024-09-05T05:58:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,6 +469,32 @@
   </si>
   <si>
     <t>Ob der Patient physisch anwesend war.</t>
+  </si>
+  <si>
+    <t>Encounter.extension:Altersgruppe</t>
+  </si>
+  <si>
+    <t>Altersgruppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-Altersgruppe}
+</t>
+  </si>
+  <si>
+    <t>In Gruppen eingeteilt, wobei vollendete Lebensjahre ausschlaggebend sind.</t>
+  </si>
+  <si>
+    <t>Encounter.extension:Neugeborenes</t>
+  </si>
+  <si>
+    <t>Neugeborenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-Neugeborenes}
+</t>
+  </si>
+  <si>
+    <t>Ein Patient wird als Neugeborenes bezeichnet, wenn das Alter zum Zugangszeitpunkt auf die Abteilung &lt;28 Tage ist.</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -1847,7 +1873,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN71"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3042,43 +3068,41 @@
         <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>19</v>
       </c>
@@ -3126,7 +3150,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3147,7 +3171,7 @@
         <v>19</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>19</v>
@@ -3155,12 +3179,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>19</v>
       </c>
@@ -3169,7 +3195,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
@@ -3178,16 +3204,16 @@
         <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3238,7 +3264,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3250,38 +3276,38 @@
         <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
@@ -3293,18 +3319,20 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
       </c>
@@ -3328,13 +3356,13 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>19</v>
@@ -3352,39 +3380,39 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>170</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3407,13 +3435,13 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3440,13 +3468,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3464,7 +3492,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3479,24 +3507,24 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3504,7 +3532,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>87</v>
@@ -3513,21 +3541,23 @@
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3552,13 +3582,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3576,10 +3606,10 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>87</v>
@@ -3591,24 +3621,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3631,17 +3661,15 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3666,13 +3694,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="Z16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3690,7 +3718,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3705,24 +3733,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3733,7 +3761,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
@@ -3742,16 +3770,16 @@
         <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3778,13 +3806,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -3802,13 +3830,13 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
@@ -3817,35 +3845,35 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
@@ -3857,16 +3885,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3892,13 +3920,13 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>19</v>
@@ -3916,13 +3944,13 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
@@ -3931,24 +3959,24 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3959,7 +3987,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -3968,20 +3996,18 @@
         <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -4006,13 +4032,13 @@
         <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>19</v>
@@ -4030,13 +4056,13 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>19</v>
@@ -4045,35 +4071,35 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>19</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -4085,15 +4111,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -4142,13 +4170,13 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
@@ -4157,35 +4185,35 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -4197,15 +4225,17 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>19</v>
@@ -4230,13 +4260,13 @@
         <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>19</v>
@@ -4254,13 +4284,13 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
@@ -4269,13 +4299,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>19</v>
@@ -4283,10 +4313,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4306,16 +4336,16 @@
         <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4366,7 +4396,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4384,32 +4414,32 @@
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>19</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -4421,17 +4451,15 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4480,13 +4508,13 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
@@ -4495,13 +4523,13 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -4509,10 +4537,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4523,7 +4551,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4535,13 +4563,13 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4592,13 +4620,13 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
@@ -4607,24 +4635,24 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>253</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4635,7 +4663,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
@@ -4644,19 +4672,19 @@
         <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4706,39 +4734,39 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AN25" t="s" s="2">
-        <v>262</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4761,13 +4789,13 @@
         <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4818,7 +4846,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4827,34 +4855,34 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>19</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4870,19 +4898,19 @@
         <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4932,7 +4960,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4944,63 +4972,59 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>19</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
       </c>
@@ -5048,19 +5072,19 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
@@ -5069,7 +5093,7 @@
         <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>19</v>
@@ -5077,14 +5101,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5100,19 +5124,19 @@
         <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="N29" t="s" s="2">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5138,31 +5162,31 @@
         <v>19</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5171,62 +5195,66 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>284</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>287</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
@@ -5274,19 +5302,19 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
@@ -5295,18 +5323,18 @@
         <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5317,7 +5345,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -5329,16 +5357,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5364,13 +5392,13 @@
         <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>19</v>
@@ -5388,39 +5416,39 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5431,7 +5459,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5440,16 +5468,16 @@
         <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5500,13 +5528,13 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>19</v>
@@ -5515,24 +5543,24 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5543,7 +5571,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>19</v>
@@ -5552,19 +5580,19 @@
         <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5614,39 +5642,39 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>19</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5657,7 +5685,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -5666,20 +5694,18 @@
         <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5728,13 +5754,13 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
@@ -5743,24 +5769,24 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5771,7 +5797,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -5783,15 +5809,17 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5840,13 +5868,13 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>19</v>
@@ -5861,18 +5889,18 @@
         <v>19</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>325</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5895,15 +5923,17 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -5952,7 +5982,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5967,24 +5997,24 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6007,17 +6037,15 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -6066,7 +6094,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6081,24 +6109,24 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6109,7 +6137,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
@@ -6118,20 +6146,18 @@
         <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6180,13 +6206,13 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
@@ -6204,15 +6230,15 @@
         <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>19</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6235,15 +6261,17 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6292,7 +6320,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6301,34 +6329,34 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>205</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>19</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6344,19 +6372,19 @@
         <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6406,7 +6434,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6418,7 +6446,7 @@
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
@@ -6427,7 +6455,7 @@
         <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>19</v>
@@ -6435,46 +6463,42 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>19</v>
       </c>
@@ -6522,19 +6546,19 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
@@ -6543,7 +6567,7 @@
         <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>19</v>
@@ -6551,14 +6575,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6574,18 +6598,20 @@
         <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6610,11 +6636,13 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -6632,7 +6660,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6644,7 +6672,7 @@
         <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
@@ -6653,7 +6681,7 @@
         <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>19</v>
@@ -6661,14 +6689,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6681,22 +6709,26 @@
         <v>19</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
       </c>
@@ -6720,13 +6752,13 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>353</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -6744,7 +6776,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6756,27 +6788,27 @@
         <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>132</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6799,17 +6831,15 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -6834,13 +6864,11 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
@@ -6858,7 +6886,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6879,7 +6907,7 @@
         <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>19</v>
@@ -6887,21 +6915,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -6910,16 +6938,16 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6946,13 +6974,13 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>19</v>
+        <v>361</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -6970,43 +6998,43 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>19</v>
+        <v>363</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>205</v>
+        <v>365</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>19</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7022,19 +7050,19 @@
         <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>270</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>271</v>
+        <v>369</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7084,7 +7112,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>272</v>
+        <v>367</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7096,7 +7124,7 @@
         <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -7105,7 +7133,7 @@
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>205</v>
+        <v>371</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -7113,46 +7141,42 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
       </c>
@@ -7200,19 +7224,19 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
@@ -7221,7 +7245,7 @@
         <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
@@ -7229,14 +7253,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>368</v>
+        <v>155</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7252,18 +7276,20 @@
         <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>278</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7288,11 +7314,13 @@
         <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>19</v>
@@ -7310,7 +7338,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7322,31 +7350,31 @@
         <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>374</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7359,22 +7387,26 @@
         <v>19</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>283</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
       </c>
@@ -7398,13 +7430,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>378</v>
+        <v>19</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>379</v>
+        <v>19</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7422,7 +7454,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7434,7 +7466,7 @@
         <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>19</v>
@@ -7443,22 +7475,22 @@
         <v>19</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>19</v>
+        <v>376</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7474,20 +7506,18 @@
         <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7512,13 +7542,11 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>19</v>
@@ -7536,7 +7564,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7551,24 +7579,24 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>19</v>
+        <v>363</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>19</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7591,20 +7619,16 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>19</v>
       </c>
@@ -7628,13 +7652,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -7652,7 +7676,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7673,18 +7697,18 @@
         <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>394</v>
+        <v>213</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7707,15 +7731,17 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>172</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7740,13 +7766,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -7764,7 +7790,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7785,18 +7811,18 @@
         <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>402</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7819,18 +7845,20 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
       </c>
@@ -7854,13 +7882,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -7878,7 +7906,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7899,18 +7927,18 @@
         <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7921,7 +7949,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
@@ -7933,17 +7961,15 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -7968,13 +7994,13 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>19</v>
+        <v>407</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>19</v>
@@ -7992,13 +8018,13 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>19</v>
@@ -8013,18 +8039,18 @@
         <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>19</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8035,7 +8061,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
@@ -8047,15 +8073,17 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8080,13 +8108,13 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>19</v>
+        <v>415</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>19</v>
@@ -8104,19 +8132,19 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
@@ -8125,29 +8153,29 @@
         <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>205</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
@@ -8159,16 +8187,16 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>271</v>
+        <v>421</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>150</v>
+        <v>422</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8218,19 +8246,19 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
@@ -8239,7 +8267,7 @@
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>205</v>
+        <v>423</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -8247,46 +8275,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>19</v>
       </c>
@@ -8334,19 +8358,19 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
@@ -8355,7 +8379,7 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>19</v>
@@ -8363,21 +8387,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8389,15 +8413,17 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
+        <v>278</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8446,19 +8472,19 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>280</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
@@ -8467,50 +8493,54 @@
         <v>19</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>422</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>424</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -8558,19 +8588,19 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>423</v>
+        <v>285</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
@@ -8579,7 +8609,7 @@
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>427</v>
+        <v>132</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>19</v>
@@ -8587,10 +8617,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8613,13 +8643,13 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8646,13 +8676,13 @@
         <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>431</v>
+        <v>19</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>432</v>
+        <v>19</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -8670,7 +8700,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8691,18 +8721,18 @@
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>433</v>
+        <v>167</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8725,13 +8755,13 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>172</v>
+        <v>432</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8758,13 +8788,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>438</v>
+        <v>19</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>439</v>
+        <v>19</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -8782,7 +8812,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8803,18 +8833,18 @@
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>205</v>
+        <v>435</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>440</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8837,13 +8867,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8870,13 +8900,13 @@
         <v>19</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>19</v>
+        <v>439</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>19</v>
+        <v>440</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>19</v>
@@ -8894,7 +8924,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8915,18 +8945,18 @@
         <v>19</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8949,13 +8979,13 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8982,11 +9012,13 @@
         <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>19</v>
@@ -9004,7 +9036,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9025,18 +9057,18 @@
         <v>19</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>450</v>
+        <v>213</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9047,7 +9079,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>19</v>
@@ -9059,17 +9091,15 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>19</v>
@@ -9118,13 +9148,13 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>19</v>
@@ -9139,18 +9169,18 @@
         <v>19</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>19</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9173,13 +9203,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>265</v>
+        <v>455</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>266</v>
+        <v>456</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9206,13 +9236,11 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>19</v>
+        <v>457</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -9230,7 +9258,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>267</v>
+        <v>454</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9239,10 +9267,10 @@
         <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>19</v>
@@ -9251,22 +9279,22 @@
         <v>19</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>205</v>
+        <v>458</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>19</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9285,16 +9313,16 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>270</v>
+        <v>461</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>271</v>
+        <v>462</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>150</v>
+        <v>463</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9344,7 +9372,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>272</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9356,7 +9384,7 @@
         <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>19</v>
@@ -9365,7 +9393,7 @@
         <v>19</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>205</v>
+        <v>464</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>19</v>
@@ -9373,46 +9401,42 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>19</v>
       </c>
@@ -9460,19 +9484,19 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
@@ -9481,7 +9505,7 @@
         <v>19</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>19</v>
@@ -9489,21 +9513,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
@@ -9515,15 +9539,17 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>461</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>462</v>
+        <v>278</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -9572,31 +9598,31 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>464</v>
+        <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>465</v>
+        <v>19</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>466</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -9608,37 +9634,39 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>468</v>
+        <v>283</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>469</v>
+        <v>284</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
       </c>
@@ -9662,13 +9690,13 @@
         <v>19</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>471</v>
+        <v>19</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>472</v>
+        <v>19</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>19</v>
@@ -9686,19 +9714,19 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>467</v>
+        <v>285</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>19</v>
@@ -9707,7 +9735,7 @@
         <v>19</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>473</v>
+        <v>132</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>19</v>
@@ -9715,10 +9743,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9726,7 +9754,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>87</v>
@@ -9741,17 +9769,15 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
@@ -9776,13 +9802,13 @@
         <v>19</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>478</v>
+        <v>19</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>479</v>
+        <v>19</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -9800,10 +9826,10 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>87</v>
@@ -9815,24 +9841,24 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>19</v>
+        <v>472</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>19</v>
+        <v>473</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>19</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9855,15 +9881,17 @@
         <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>19</v>
@@ -9888,13 +9916,13 @@
         <v>19</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>19</v>
+        <v>479</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>19</v>
+        <v>480</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -9912,7 +9940,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -9933,9 +9961,235 @@
         <v>19</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>292</v>
+        <v>481</v>
       </c>
       <c r="AN71" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:55:47+00:00</t>
+    <t>2024-09-26T09:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:59:14+00:00</t>
+    <t>2024-09-26T10:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T10:56:09+00:00</t>
+    <t>2024-09-26T13:32:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:32:53+00:00</t>
+    <t>2024-09-26T13:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:57:34+00:00</t>
+    <t>2024-09-27T07:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:18:42+00:00</t>
+    <t>2024-09-30T06:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T06:58:27+00:00</t>
+    <t>2024-09-30T08:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:02:36+00:00</t>
+    <t>2024-09-30T08:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:10:10+00:00</t>
+    <t>2024-09-30T08:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:14:13+00:00</t>
+    <t>2024-09-30T08:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:48:22+00:00</t>
+    <t>2024-09-30T09:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:04:34+00:00</t>
+    <t>2024-09-30T10:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T10:20:26+00:00</t>
+    <t>2024-09-30T12:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:24:06+00:00</t>
+    <t>2024-09-30T18:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:33:40+00:00</t>
+    <t>2024-10-01T09:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:38:16+00:00</t>
+    <t>2024-10-01T12:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:31:57+00:00</t>
+    <t>2024-10-07T08:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T08:22:28+00:00</t>
+    <t>2024-10-11T08:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -481,7 +481,7 @@
 </t>
   </si>
   <si>
-    <t>In Gruppen eingeteilt, wobei vollendete Lebensjahre ausschlaggebend sind.</t>
+    <t>Nach dem Alter in Gruppen eingeteilt, wobei vollendete Lebensjahre ausschlaggebend sind.</t>
   </si>
   <si>
     <t>Encounter.extension:Neugeborenes</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,22 +455,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Encounter.extension:PhysischeAnwesenheit</t>
-  </si>
-  <si>
-    <t>PhysischeAnwesenheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-physischeAnwesenheit}
-</t>
-  </si>
-  <si>
-    <t>physische Anwesenheit</t>
-  </si>
-  <si>
-    <t>Ob der Patient physisch anwesend war.</t>
-  </si>
-  <si>
     <t>Encounter.extension:Altersgruppe</t>
   </si>
   <si>
@@ -729,10 +713,7 @@
     <t>Different use-cases are likely to have different permitted transitions between states, such as an Emergency department could use `arrived` when the patient first presents, then `triaged` once has been assessed by a nurse, then `receiving-care` once treatment begins, however other sectors may use a different set of these values, or their own custom set in place of this example valueset provided.</t>
   </si>
   <si>
-    <t>Current status of the subject  within the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-subject-status</t>
+    <t>http://example.org/ValueSet/moped-Anwesenheitsart-valueset</t>
   </si>
   <si>
     <t>Encounter.episodeOfCare</t>
@@ -1873,7 +1854,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1884,7 +1865,7 @@
   <cols>
     <col min="1" max="1" width="41.58984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.58984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.41015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1907,7 +1888,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.48046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2982,10 +2963,10 @@
         <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3065,13 +3046,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>19</v>
@@ -3093,13 +3074,13 @@
         <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3179,44 +3160,46 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
       </c>
@@ -3264,7 +3247,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3285,7 +3268,7 @@
         <v>19</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>19</v>
@@ -3293,14 +3276,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3313,26 +3296,22 @@
         <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O13" t="s" s="2">
         <v>159</v>
       </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>19</v>
       </c>
@@ -3380,7 +3359,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3392,27 +3371,27 @@
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3420,30 +3399,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3468,13 +3449,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3492,13 +3473,13 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>19</v>
@@ -3507,24 +3488,24 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3532,32 +3513,30 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3582,37 +3561,37 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>19</v>
@@ -3621,24 +3600,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3649,7 +3628,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -3658,16 +3637,16 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3694,37 +3673,37 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
@@ -3736,21 +3715,21 @@
         <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3761,7 +3740,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
@@ -3770,18 +3749,20 @@
         <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3806,37 +3787,37 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
@@ -3845,24 +3826,24 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3885,17 +3866,15 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
@@ -3920,31 +3899,31 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Z18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3959,35 +3938,35 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -3999,15 +3978,17 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -4032,13 +4013,13 @@
         <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>19</v>
@@ -4056,13 +4037,13 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>19</v>
@@ -4071,28 +4052,28 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4108,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4146,13 +4127,11 @@
         <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>19</v>
@@ -4170,7 +4149,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4185,16 +4164,16 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>224</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -4213,7 +4192,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -4222,20 +4201,18 @@
         <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>228</v>
       </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>19</v>
@@ -4260,13 +4237,13 @@
         <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>19</v>
@@ -4290,7 +4267,7 @@
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
@@ -4302,13 +4279,13 @@
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>19</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
@@ -4320,7 +4297,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4336,16 +4313,16 @@
         <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4411,28 +4388,28 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4508,7 +4485,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4523,13 +4500,13 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -4537,10 +4514,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4551,7 +4528,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4563,15 +4540,17 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4620,13 +4599,13 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
@@ -4635,13 +4614,13 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>19</v>
@@ -4649,10 +4628,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4675,17 +4654,15 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>252</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4734,7 +4711,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4758,15 +4735,15 @@
         <v>254</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4777,7 +4754,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -4786,18 +4763,20 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4846,39 +4825,39 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4889,7 +4868,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -4898,20 +4877,18 @@
         <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4960,31 +4937,31 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>270</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -4996,14 +4973,14 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
@@ -5015,15 +4992,17 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -5072,19 +5051,19 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
@@ -5093,7 +5072,7 @@
         <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>19</v>
@@ -5101,14 +5080,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5121,24 +5100,26 @@
         <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="N29" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
@@ -5186,7 +5167,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5207,7 +5188,7 @@
         <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>19</v>
@@ -5215,14 +5196,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5235,26 +5216,24 @@
         <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
@@ -5278,13 +5257,13 @@
         <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>19</v>
@@ -5302,7 +5281,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5311,30 +5290,30 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>19</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5345,7 +5324,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -5354,20 +5333,18 @@
         <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5392,46 +5369,46 @@
         <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>292</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>19</v>
@@ -5468,7 +5445,7 @@
         <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>297</v>
@@ -5479,7 +5456,9 @@
       <c r="M32" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5537,30 +5516,30 @@
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5571,7 +5550,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>19</v>
@@ -5583,17 +5562,15 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5642,25 +5619,25 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>292</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>308</v>
@@ -5694,7 +5671,7 @@
         <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>311</v>
@@ -5705,7 +5682,9 @@
       <c r="M34" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5769,24 +5748,24 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>315</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5797,7 +5776,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -5809,16 +5788,16 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5868,13 +5847,13 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>19</v>
@@ -5883,24 +5862,24 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>132</v>
+        <v>321</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>19</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5923,17 +5902,15 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -5982,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5997,24 +5974,24 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6037,13 +6014,13 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6094,7 +6071,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6118,15 +6095,15 @@
         <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6149,15 +6126,17 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6206,7 +6185,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6221,24 +6200,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6249,7 +6228,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -6258,10 +6237,10 @@
         <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>340</v>
@@ -6320,13 +6299,13 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>19</v>
@@ -6335,24 +6314,24 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>344</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6363,7 +6342,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -6372,20 +6351,18 @@
         <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6434,19 +6411,19 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
@@ -6455,7 +6432,7 @@
         <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>19</v>
@@ -6463,21 +6440,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
@@ -6489,15 +6466,17 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6546,19 +6525,19 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
@@ -6567,7 +6546,7 @@
         <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>19</v>
@@ -6575,14 +6554,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6595,24 +6574,26 @@
         <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
       </c>
@@ -6660,7 +6641,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6681,7 +6662,7 @@
         <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>19</v>
@@ -6689,14 +6670,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6709,26 +6690,22 @@
         <v>19</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>19</v>
       </c>
@@ -6752,13 +6729,11 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -6776,7 +6751,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6788,7 +6763,7 @@
         <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
@@ -6797,7 +6772,7 @@
         <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>19</v>
@@ -6805,14 +6780,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6831,7 +6806,7 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>180</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>353</v>
@@ -6864,11 +6839,13 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
@@ -6886,7 +6863,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6901,28 +6878,28 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>357</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6941,15 +6918,17 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>257</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -6974,31 +6953,31 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7013,24 +6992,24 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>365</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>366</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7041,7 +7020,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -7050,20 +7029,18 @@
         <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>267</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7112,19 +7089,19 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -7133,7 +7110,7 @@
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>371</v>
+        <v>208</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -7141,21 +7118,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
@@ -7167,15 +7144,17 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7224,19 +7203,19 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
@@ -7245,7 +7224,7 @@
         <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
@@ -7253,14 +7232,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7273,24 +7252,26 @@
         <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
       </c>
@@ -7338,7 +7319,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7359,7 +7340,7 @@
         <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>19</v>
@@ -7367,14 +7348,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>282</v>
+        <v>370</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7387,26 +7368,22 @@
         <v>19</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>19</v>
       </c>
@@ -7430,13 +7407,11 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7454,7 +7429,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7466,31 +7441,31 @@
         <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>132</v>
+        <v>375</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>19</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7506,10 +7481,10 @@
         <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>378</v>
@@ -7542,11 +7517,13 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>19</v>
@@ -7564,7 +7541,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7579,13 +7556,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>381</v>
+        <v>208</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>382</v>
@@ -7619,15 +7596,17 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7652,13 +7631,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>386</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -7697,10 +7676,10 @@
         <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>213</v>
+        <v>388</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>388</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -7731,18 +7710,20 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>19</v>
       </c>
@@ -7766,13 +7747,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>19</v>
+        <v>394</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>19</v>
+        <v>395</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -7811,18 +7792,18 @@
         <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>19</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7845,20 +7826,16 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
       </c>
@@ -7882,13 +7859,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -7906,7 +7883,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7927,18 +7904,18 @@
         <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7961,15 +7938,17 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -7994,13 +7973,13 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>19</v>
@@ -8018,7 +7997,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8039,18 +8018,18 @@
         <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8061,7 +8040,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
@@ -8073,16 +8052,16 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8108,13 +8087,13 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>415</v>
+        <v>19</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>416</v>
+        <v>19</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>19</v>
@@ -8132,13 +8111,13 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>19</v>
@@ -8156,15 +8135,15 @@
         <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8187,17 +8166,15 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>267</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -8246,7 +8223,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>419</v>
+        <v>269</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8255,10 +8232,10 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
@@ -8267,7 +8244,7 @@
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>423</v>
+        <v>208</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -8275,21 +8252,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
@@ -8301,15 +8278,17 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -8358,19 +8337,19 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
@@ -8379,7 +8358,7 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>19</v>
@@ -8387,14 +8366,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8407,24 +8386,26 @@
         <v>19</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
       </c>
@@ -8472,7 +8453,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8493,7 +8474,7 @@
         <v>19</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>19</v>
@@ -8501,46 +8482,42 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>283</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -8588,19 +8565,19 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>285</v>
+        <v>421</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
@@ -8609,18 +8586,18 @@
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>19</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8643,13 +8620,13 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8700,7 +8677,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8721,18 +8698,18 @@
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>167</v>
+        <v>429</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>430</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8755,13 +8732,13 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8788,13 +8765,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>19</v>
+        <v>433</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>19</v>
+        <v>434</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -8812,7 +8789,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8836,15 +8813,15 @@
         <v>435</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>19</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8867,13 +8844,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8900,13 +8877,13 @@
         <v>19</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>19</v>
@@ -8924,7 +8901,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8945,7 +8922,7 @@
         <v>19</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>441</v>
+        <v>208</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>442</v>
@@ -8979,7 +8956,7 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>180</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>444</v>
@@ -9012,13 +8989,13 @@
         <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>446</v>
+        <v>19</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>447</v>
+        <v>19</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>19</v>
@@ -9057,18 +9034,18 @@
         <v>19</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>213</v>
+        <v>446</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9091,13 +9068,13 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>432</v>
+        <v>175</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9124,13 +9101,11 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>19</v>
+        <v>451</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -9148,7 +9123,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9191,7 +9166,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
@@ -9203,7 +9178,7 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>455</v>
@@ -9211,7 +9186,9 @@
       <c r="M65" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -9236,11 +9213,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>457</v>
+        <v>19</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -9264,7 +9243,7 @@
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>19</v>
@@ -9282,15 +9261,15 @@
         <v>458</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>459</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9301,7 +9280,7 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
@@ -9313,17 +9292,15 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>461</v>
+        <v>267</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -9372,19 +9349,19 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>460</v>
+        <v>269</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>19</v>
@@ -9393,7 +9370,7 @@
         <v>19</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>464</v>
+        <v>208</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>19</v>
@@ -9401,21 +9378,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>19</v>
@@ -9427,15 +9404,17 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -9484,19 +9463,19 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
@@ -9505,7 +9484,7 @@
         <v>19</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>19</v>
@@ -9513,14 +9492,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9533,24 +9512,26 @@
         <v>19</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
       </c>
@@ -9598,7 +9579,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9619,7 +9600,7 @@
         <v>19</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>19</v>
@@ -9627,46 +9608,42 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>463</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>283</v>
+        <v>464</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>19</v>
       </c>
@@ -9714,39 +9691,39 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>285</v>
+        <v>462</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>19</v>
+        <v>466</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>19</v>
+        <v>467</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>19</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9754,7 +9731,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>87</v>
@@ -9769,7 +9746,7 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>469</v>
+        <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>470</v>
@@ -9777,7 +9754,9 @@
       <c r="M70" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
@@ -9802,13 +9781,13 @@
         <v>19</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>19</v>
+        <v>473</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -9826,10 +9805,10 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>87</v>
@@ -9841,24 +9820,24 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>472</v>
+        <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>473</v>
+        <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>474</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9881,16 +9860,16 @@
         <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9916,13 +9895,13 @@
         <v>19</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -9940,7 +9919,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -9961,7 +9940,7 @@
         <v>19</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>19</v>
@@ -9995,7 +9974,7 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>483</v>
@@ -10003,9 +9982,7 @@
       <c r="M72" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>485</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -10030,13 +10007,13 @@
         <v>19</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>486</v>
+        <v>19</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>487</v>
+        <v>19</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>19</v>
@@ -10075,121 +10052,9 @@
         <v>19</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN73" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDTransferEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
